--- a/methods_dictionary.xlsx
+++ b/methods_dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\rplos\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/Git projects/stats_section/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98B1CD7-EF5D-4486-BA72-31F4F02C58CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{F98B1CD7-EF5D-4486-BA72-31F4F02C58CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{69800FAE-C895-49FC-9F32-49EC2F012313}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,131 +21,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
-  <si>
-    <t>mann-whitney</t>
-  </si>
-  <si>
-    <t>kruskal-wallis</t>
-  </si>
-  <si>
-    <t>kaplan-meier</t>
-  </si>
-  <si>
-    <t>shapiro-wilk</t>
-  </si>
-  <si>
-    <t>kolmogorov-smirnov</t>
-  </si>
-  <si>
-    <t>newman-keuls</t>
-  </si>
-  <si>
-    <t>hardy-weinberg</t>
-  </si>
-  <si>
-    <t>tukey-kramer</t>
-  </si>
-  <si>
-    <t>holm-bonferroni</t>
-  </si>
-  <si>
-    <t>bland-altman</t>
-  </si>
-  <si>
-    <t>bray-curtis</t>
-  </si>
-  <si>
-    <t>greenhouse-geisser</t>
-  </si>
-  <si>
-    <t>hosmer-lemeshow</t>
-  </si>
-  <si>
-    <t>cochran-mantel-haenszel</t>
-  </si>
-  <si>
-    <t>mantel-haenszel</t>
-  </si>
-  <si>
-    <t>d'agostino-pearson</t>
-  </si>
-  <si>
-    <t>cochran-armitage</t>
-  </si>
-  <si>
-    <t>g-power</t>
-  </si>
-  <si>
-    <t>kenward-roger</t>
-  </si>
-  <si>
-    <t>jonckheere-terpstra</t>
-  </si>
-  <si>
-    <t>welch-satterthwaite</t>
-  </si>
-  <si>
-    <t>gelman-rubin</t>
-  </si>
-  <si>
-    <t>gehan-wilcoxon</t>
-  </si>
-  <si>
-    <t>brown-forsythe</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="197">
   <si>
     <t>term</t>
   </si>
   <si>
-    <t>signed-rank</t>
-  </si>
-  <si>
-    <t>tukey-duckworth</t>
-  </si>
-  <si>
-    <t>anderson-darling</t>
-  </si>
-  <si>
-    <t>siegel-tukey</t>
-  </si>
-  <si>
-    <t>wald-wolfowitz</t>
-  </si>
-  <si>
     <t>update</t>
   </si>
   <si>
     <t>familywise</t>
   </si>
   <si>
-    <t>family wise</t>
-  </si>
-  <si>
     <t>posthoc</t>
   </si>
   <si>
-    <t>post hoc</t>
-  </si>
-  <si>
     <t>posttest</t>
   </si>
   <si>
-    <t>post test</t>
-  </si>
-  <si>
     <t>pretest</t>
   </si>
   <si>
-    <t>pre test</t>
-  </si>
-  <si>
     <t>non parametric</t>
   </si>
   <si>
-    <t>nonparametric</t>
-  </si>
-  <si>
     <t>student</t>
   </si>
   <si>
@@ -167,9 +65,6 @@
     <t>pvalue</t>
   </si>
   <si>
-    <t>p value</t>
-  </si>
-  <si>
     <t>fischer</t>
   </si>
   <si>
@@ -297,6 +192,426 @@
   </si>
   <si>
     <t>cohen</t>
+  </si>
+  <si>
+    <t>family-wise</t>
+  </si>
+  <si>
+    <t>post-hoc</t>
+  </si>
+  <si>
+    <t>post-test</t>
+  </si>
+  <si>
+    <t>pre-test</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>intention-to-treat</t>
+  </si>
+  <si>
+    <t>per-protocol</t>
+  </si>
+  <si>
+    <t>one-way</t>
+  </si>
+  <si>
+    <t>two-way</t>
+  </si>
+  <si>
+    <t>bell-shaped</t>
+  </si>
+  <si>
+    <t>case-control</t>
+  </si>
+  <si>
+    <t>z-test</t>
+  </si>
+  <si>
+    <t>z-statistic</t>
+  </si>
+  <si>
+    <t>square-root</t>
+  </si>
+  <si>
+    <t>intention to treat</t>
+  </si>
+  <si>
+    <t>per protocol</t>
+  </si>
+  <si>
+    <t>one way</t>
+  </si>
+  <si>
+    <t>two way</t>
+  </si>
+  <si>
+    <t>bell shaped</t>
+  </si>
+  <si>
+    <t>case control</t>
+  </si>
+  <si>
+    <t>z test</t>
+  </si>
+  <si>
+    <t>z statistic</t>
+  </si>
+  <si>
+    <t>square root</t>
+  </si>
+  <si>
+    <t>u-shaped</t>
+  </si>
+  <si>
+    <t>s-shaped</t>
+  </si>
+  <si>
+    <t>type-I</t>
+  </si>
+  <si>
+    <t>type-II</t>
+  </si>
+  <si>
+    <t>type I</t>
+  </si>
+  <si>
+    <t>type II</t>
+  </si>
+  <si>
+    <t>u shaped</t>
+  </si>
+  <si>
+    <t>s shaped</t>
+  </si>
+  <si>
+    <t>type 1</t>
+  </si>
+  <si>
+    <t>type 2</t>
+  </si>
+  <si>
+    <t>mantel cox</t>
+  </si>
+  <si>
+    <t>mantel haenszel</t>
+  </si>
+  <si>
+    <t>hodges lehmann</t>
+  </si>
+  <si>
+    <t>mann whitney</t>
+  </si>
+  <si>
+    <t>kruskal wallis</t>
+  </si>
+  <si>
+    <t>kaplan meier</t>
+  </si>
+  <si>
+    <t>shapiro wilk</t>
+  </si>
+  <si>
+    <t>kolmogorov smirnov</t>
+  </si>
+  <si>
+    <t>newman keuls</t>
+  </si>
+  <si>
+    <t>hardy weinberg</t>
+  </si>
+  <si>
+    <t>tukey kramer</t>
+  </si>
+  <si>
+    <t>holm bonferroni</t>
+  </si>
+  <si>
+    <t>bland altman</t>
+  </si>
+  <si>
+    <t>bray curtis</t>
+  </si>
+  <si>
+    <t>greenhouse geisser</t>
+  </si>
+  <si>
+    <t>hosmer lemeshow</t>
+  </si>
+  <si>
+    <t>cochran mantel haenszel</t>
+  </si>
+  <si>
+    <t>d'agostino pearson</t>
+  </si>
+  <si>
+    <t>signed rank</t>
+  </si>
+  <si>
+    <t>cochran armitage</t>
+  </si>
+  <si>
+    <t>g power</t>
+  </si>
+  <si>
+    <t>kenward roger</t>
+  </si>
+  <si>
+    <t>jonckheere terpstra</t>
+  </si>
+  <si>
+    <t>welch satterthwaite</t>
+  </si>
+  <si>
+    <t>gelman rubin</t>
+  </si>
+  <si>
+    <t>gehan wilcoxon</t>
+  </si>
+  <si>
+    <t>brown forsythe</t>
+  </si>
+  <si>
+    <t>tukey duckworth</t>
+  </si>
+  <si>
+    <t>anderson darling</t>
+  </si>
+  <si>
+    <t>siegel tukey</t>
+  </si>
+  <si>
+    <t>wald wolfowitz</t>
+  </si>
+  <si>
+    <t>inter-quartile</t>
+  </si>
+  <si>
+    <t>interquartile</t>
+  </si>
+  <si>
+    <t>inter rater</t>
+  </si>
+  <si>
+    <t>intra rater</t>
+  </si>
+  <si>
+    <t>inter-rater</t>
+  </si>
+  <si>
+    <t>intra-rater</t>
+  </si>
+  <si>
+    <t>between person</t>
+  </si>
+  <si>
+    <t>within person</t>
+  </si>
+  <si>
+    <t>within subject</t>
+  </si>
+  <si>
+    <t>between subject</t>
+  </si>
+  <si>
+    <t>within-subject</t>
+  </si>
+  <si>
+    <t>between-subject</t>
+  </si>
+  <si>
+    <t>within-person</t>
+  </si>
+  <si>
+    <t>between-person</t>
+  </si>
+  <si>
+    <t>box cox</t>
+  </si>
+  <si>
+    <t>non-parametric</t>
+  </si>
+  <si>
+    <t>non central</t>
+  </si>
+  <si>
+    <t>non-central</t>
+  </si>
+  <si>
+    <t>non normal</t>
+  </si>
+  <si>
+    <t>semi parametric</t>
+  </si>
+  <si>
+    <t>chi square</t>
+  </si>
+  <si>
+    <t>chi squared</t>
+  </si>
+  <si>
+    <t>delta beta</t>
+  </si>
+  <si>
+    <t>f distribution</t>
+  </si>
+  <si>
+    <t>f test</t>
+  </si>
+  <si>
+    <t>t distribution</t>
+  </si>
+  <si>
+    <t>t test</t>
+  </si>
+  <si>
+    <t>r square</t>
+  </si>
+  <si>
+    <t>r squared</t>
+  </si>
+  <si>
+    <t>log likelihood</t>
+  </si>
+  <si>
+    <t>log linear</t>
+  </si>
+  <si>
+    <t>log logistic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">burn in </t>
+  </si>
+  <si>
+    <t>metropolis hastings</t>
+  </si>
+  <si>
+    <t>multi colinear</t>
+  </si>
+  <si>
+    <t>cox snell</t>
+  </si>
+  <si>
+    <t>s plus</t>
+  </si>
+  <si>
+    <t>non-normal</t>
+  </si>
+  <si>
+    <t>semi-parametric</t>
+  </si>
+  <si>
+    <t>chi-square</t>
+  </si>
+  <si>
+    <t>chi-squared</t>
+  </si>
+  <si>
+    <t>delta-beta</t>
+  </si>
+  <si>
+    <t>f-distribution</t>
+  </si>
+  <si>
+    <t>f-test</t>
+  </si>
+  <si>
+    <t>t-distribution</t>
+  </si>
+  <si>
+    <t>t-test</t>
+  </si>
+  <si>
+    <t>r-square</t>
+  </si>
+  <si>
+    <t>r-squared</t>
+  </si>
+  <si>
+    <t>log-likelihood</t>
+  </si>
+  <si>
+    <t>log-linear</t>
+  </si>
+  <si>
+    <t>log-logistic</t>
+  </si>
+  <si>
+    <t>burn-in-</t>
+  </si>
+  <si>
+    <t>metropolis-hastings</t>
+  </si>
+  <si>
+    <t>multi-colinear</t>
+  </si>
+  <si>
+    <t>cox-snell</t>
+  </si>
+  <si>
+    <t>s-plus</t>
+  </si>
+  <si>
+    <t>dose response</t>
+  </si>
+  <si>
+    <t>meta analysis</t>
+  </si>
+  <si>
+    <t>meta regression</t>
+  </si>
+  <si>
+    <t>multi level</t>
+  </si>
+  <si>
+    <t>log rank</t>
+  </si>
+  <si>
+    <t>one sided</t>
+  </si>
+  <si>
+    <t>two sided</t>
+  </si>
+  <si>
+    <t>pre post</t>
+  </si>
+  <si>
+    <t>product limit</t>
+  </si>
+  <si>
+    <t>quasi likelihood</t>
+  </si>
+  <si>
+    <t>dose-response</t>
+  </si>
+  <si>
+    <t>meta-analysis</t>
+  </si>
+  <si>
+    <t>meta-regression</t>
+  </si>
+  <si>
+    <t>multi-level</t>
+  </si>
+  <si>
+    <t>log-rank</t>
+  </si>
+  <si>
+    <t>one-sided</t>
+  </si>
+  <si>
+    <t>two-sided</t>
+  </si>
+  <si>
+    <t>pre-post</t>
+  </si>
+  <si>
+    <t>product-limit</t>
+  </si>
+  <si>
+    <t>quasi-likelihood</t>
   </si>
 </sst>
 </file>
@@ -780,8 +1095,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1137,10 +1455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,441 +1468,899 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>73</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/methods_dictionary.xlsx
+++ b/methods_dictionary.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/Git projects/stats_section/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{187F6103-615A-47C5-BA3D-1C61B4FE5D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{187F6103-615A-47C5-BA3D-1C61B4FE5D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55DCC982-A84A-473A-B5A3-F2C354DDCFBC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6941413E-72A1-4783-89A4-EE179FBDE9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="stats_terms" sheetId="1" r:id="rId1"/>
-    <sheet name="uk_spelling" sheetId="3" r:id="rId2"/>
+    <sheet name="other" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -501,9 +501,6 @@
     <t xml:space="preserve">burn in </t>
   </si>
   <si>
-    <t>burn-in-</t>
-  </si>
-  <si>
     <t>metropolis hastings</t>
   </si>
   <si>
@@ -636,9 +633,6 @@
     <t>regression</t>
   </si>
   <si>
-    <t>kmean</t>
-  </si>
-  <si>
     <t>fisher</t>
   </si>
   <si>
@@ -931,6 +925,12 @@
   </si>
   <si>
     <t>two-sided</t>
+  </si>
+  <si>
+    <t>burn-in</t>
+  </si>
+  <si>
+    <t>k-mean</t>
   </si>
 </sst>
 </file>
@@ -1296,8 +1296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85770F85-B2D3-4508-9B12-71AB5E6420BB}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,18 +1315,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1339,42 +1339,42 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1435,34 +1435,34 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B17" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1478,7 +1478,7 @@
         <v>154</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>155</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1515,58 +1515,58 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B33" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1579,10 +1579,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1598,7 +1598,7 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1611,18 +1611,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1659,18 +1659,18 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B46" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -1691,18 +1691,18 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B49" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -1715,42 +1715,42 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B53" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B54" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,23 +1758,23 @@
         <v>46</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B58" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B59" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1835,10 +1835,10 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1851,10 +1851,10 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1867,34 +1867,34 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B71" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1966,31 +1966,31 @@
         <v>51</v>
       </c>
       <c r="B83" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -1998,7 +1998,7 @@
         <v>44</v>
       </c>
       <c r="B87" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -2006,7 +2006,7 @@
         <v>45</v>
       </c>
       <c r="B88" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>45</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,7 +2022,7 @@
         <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2030,23 +2030,23 @@
         <v>49</v>
       </c>
       <c r="B91" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -2054,15 +2054,15 @@
         <v>50</v>
       </c>
       <c r="B94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B95" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -2094,15 +2094,15 @@
         <v>52</v>
       </c>
       <c r="B99" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2150,7 @@
         <v>54</v>
       </c>
       <c r="B106" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2182,7 +2182,7 @@
         <v>56</v>
       </c>
       <c r="B110" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,18 +2203,18 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2235,34 +2235,34 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B117" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B120" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2275,10 +2275,10 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2307,18 +2307,18 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B126" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2326,15 +2326,15 @@
         <v>53</v>
       </c>
       <c r="B128" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B129" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2395,18 +2395,18 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B137" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B138" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2475,7 +2475,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,138 +2494,138 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/methods_dictionary.xlsx
+++ b/methods_dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/Git projects/stats_section/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{187F6103-615A-47C5-BA3D-1C61B4FE5D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{55DCC982-A84A-473A-B5A3-F2C354DDCFBC}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{187F6103-615A-47C5-BA3D-1C61B4FE5D0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D7EC2704-2C22-4A93-8F49-129426E353A7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6941413E-72A1-4783-89A4-EE179FBDE9B1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="298">
   <si>
     <t>update</t>
   </si>
@@ -168,9 +168,6 @@
     <t>square root</t>
   </si>
   <si>
-    <t xml:space="preserve">mantel cox </t>
-  </si>
-  <si>
     <t>mantel haenszel</t>
   </si>
   <si>
@@ -447,9 +444,6 @@
     <t>chi squared</t>
   </si>
   <si>
-    <t>chi-squared</t>
-  </si>
-  <si>
     <t>delta beta</t>
   </si>
   <si>
@@ -900,9 +894,6 @@
     <t>log-rank</t>
   </si>
   <si>
-    <t xml:space="preserve">mantel-cox </t>
-  </si>
-  <si>
     <t>meta-analysis</t>
   </si>
   <si>
@@ -931,22 +922,20 @@
   </si>
   <si>
     <t>k-mean</t>
+  </si>
+  <si>
+    <t>v-shaped</t>
+  </si>
+  <si>
+    <t>v shaped</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -979,7 +968,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1294,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85770F85-B2D3-4508-9B12-71AB5E6420BB}">
-  <dimension ref="A1:B145"/>
+  <dimension ref="A1:H145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,7 +1296,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1315,23 +1304,23 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
         <v>30</v>
@@ -1339,47 +1328,47 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1395,39 +1384,39 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B16" t="s">
         <v>14</v>
@@ -1435,39 +1424,39 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B19" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -1475,15 +1464,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
@@ -1499,79 +1488,79 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>33</v>
@@ -1579,31 +1568,31 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -1611,79 +1600,79 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>105</v>
+      </c>
+      <c r="B44" t="s">
         <v>106</v>
-      </c>
-      <c r="B44" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" t="s">
         <v>78</v>
-      </c>
-      <c r="B47" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -1691,23 +1680,23 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51" t="s">
         <v>22</v>
@@ -1715,71 +1704,71 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B52" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B54" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
         <v>23</v>
@@ -1795,23 +1784,23 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B64" t="s">
         <v>25</v>
@@ -1819,15 +1808,15 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
@@ -1835,82 +1824,82 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>85</v>
       </c>
       <c r="B67" t="s">
-        <v>226</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>77</v>
+        <v>180</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>240</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
-        <v>298</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="B70" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B73" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B74" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>162</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -1918,39 +1907,39 @@
         <v>70</v>
       </c>
       <c r="B77" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>69</v>
+      </c>
+      <c r="B78" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" t="s">
-        <v>29</v>
+      <c r="A80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1958,63 +1947,63 @@
         <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="B84" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B85" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>234</v>
+      <c r="A86" t="s">
+        <v>193</v>
+      </c>
+      <c r="B86" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>44</v>
-      </c>
-      <c r="B87" t="s">
-        <v>288</v>
+      <c r="A87" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B88" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -2022,15 +2011,15 @@
         <v>48</v>
       </c>
       <c r="B90" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B91" t="s">
-        <v>290</v>
+      <c r="A91" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -2042,147 +2031,147 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>158</v>
+      <c r="A93" t="s">
+        <v>49</v>
+      </c>
+      <c r="B93" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>50</v>
+        <v>166</v>
       </c>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>168</v>
-      </c>
-      <c r="B95" t="s">
-        <v>211</v>
+      <c r="A95" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>131</v>
+      <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="B98" t="s">
-        <v>115</v>
+        <v>289</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>281</v>
       </c>
       <c r="B99" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>283</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
       <c r="B105" t="s">
-        <v>111</v>
+        <v>291</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>294</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>112</v>
+        <v>54</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>292</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>56</v>
-      </c>
-      <c r="B110" t="s">
-        <v>295</v>
+      <c r="A110" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2194,32 +2183,32 @@
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>149</v>
+      <c r="A112" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>198</v>
-      </c>
-      <c r="B113" t="s">
-        <v>198</v>
+      <c r="A113" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>162</v>
+      <c r="A114" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B115" t="s">
         <v>13</v>
@@ -2227,42 +2216,42 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B116" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B117" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B119" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2275,69 +2264,69 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B126" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B127" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B128" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B129" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>38</v>
       </c>
@@ -2345,121 +2334,126 @@
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>83</v>
+      </c>
+      <c r="B132" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>80</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B133" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
+      <c r="B134" t="s">
         <v>84</v>
       </c>
-      <c r="B132" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>81</v>
-      </c>
-      <c r="B133" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>83</v>
-      </c>
-      <c r="B134" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>75</v>
-      </c>
-      <c r="B136" t="s">
+        <v>297</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>74</v>
+      </c>
+      <c r="B137" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>189</v>
-      </c>
-      <c r="B137" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B138" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>93</v>
+        <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B140" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B141" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B142" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>88</v>
+      </c>
+      <c r="B143" t="s">
+        <v>96</v>
+      </c>
+      <c r="H143" s="1"/>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>42</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B144" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>41</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B145" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B146">
@@ -2486,7 +2480,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2494,138 +2488,138 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B12" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2857,18 +2851,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2891,18 +2885,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD1FD567-2A85-4F72-A210-3107A4B71641}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47F11217-CA31-44E5-9155-3D53FF9AB52B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD1FD567-2A85-4F72-A210-3107A4B71641}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>